--- a/数据平台 - 插拔式架构.xlsx
+++ b/数据平台 - 插拔式架构.xlsx
@@ -8669,7 +8669,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>共享数据</a:t>
+              <a:t>业务数据</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -11054,8 +11054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
